--- a/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/elasticNetWork/components/bindPip.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/elasticNetWork/components/bindPip.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\8月分配\SN205-LF0028-180821-console_Output-译文-ZZH处理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZYYT\Desktop\京东云\_JDC反馈\云主机反馈\Virtual-Machine-En_Output-updated 0830\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,72 +19,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>bindip_tips_one</t>
   </si>
   <si>
-    <t>Please Select</t>
-  </si>
-  <si>
     <t>bindip_tips_two</t>
   </si>
   <si>
-    <t>Intranet</t>
-  </si>
-  <si>
     <t>bindip_tips_three</t>
   </si>
   <si>
-    <t xml:space="preserve">EIP that is to be bound </t>
-  </si>
-  <si>
     <t>bindip_tips_four</t>
-  </si>
-  <si>
-    <t>It only supports binding with the EIP that has the full availability zone attribute</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>请选择</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>内网</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>要绑定的公网</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>IP</t>
-    </r>
   </si>
   <si>
     <r>
@@ -105,6 +51,18 @@
       </rPr>
       <t>IP</t>
     </r>
+  </si>
+  <si>
+    <t>请选择内网 xxx 要绑定的公网IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please select EIP that is to be bound with Intranet xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> It only supports binding with the EIP which has the attribute of all AZs.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -159,9 +117,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -503,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -519,51 +483,47 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C4 A1:A4" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:A4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>